--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.030121-3.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1583,12 +1583,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2812,12 +2812,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3997,12 +3997,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4477,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4847,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5096,12 +5096,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5134,12 +5134,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5210,12 +5210,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5808,12 +5808,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6095,12 +6095,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6705,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7961,12 +7961,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8189,12 +8189,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8392,12 +8392,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8518,12 +8518,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8838,12 +8838,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9124,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9288,12 +9288,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9372,12 +9372,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9746,12 +9746,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10830,12 +10830,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10986,12 +10986,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11493,12 +11493,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11645,12 +11645,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11999,12 +11999,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12274,12 +12274,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12557,12 +12557,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13179,12 +13179,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13221,12 +13221,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13347,12 +13347,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14400,12 +14400,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14438,12 +14438,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14514,12 +14514,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14552,12 +14552,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15290,12 +15290,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16629,12 +16629,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16835,12 +16835,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
